--- a/workbench/01_work/output.xlsx
+++ b/workbench/01_work/output.xlsx
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -74,7 +74,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,58 +507,6 @@
         <is>
           <t>マネージャー</t>
         </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>担当</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>合計金額</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>担当</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>金額</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>佐藤</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>田中</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>鈴木</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -582,44 +529,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>担当</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>金額</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>佐藤</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>田中</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>4000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>鈴木</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>4000</v>
       </c>
     </row>
